--- a/BUG REPORT - DEMOBLAZE.xlsx
+++ b/BUG REPORT - DEMOBLAZE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -364,13 +364,67 @@
   </si>
   <si>
     <t xml:space="preserve"> URL : https://www.Demoblaze.com/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SItGCPMZB3C0kjOnFhLC8l1ww4Ut5ANy/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KKBgP3eJ3AUJiTWAAm9hQG4IRk2dJEAo/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oQKI7n9AAnCxbGhfrt7IYVS_mGzP_KVk/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XN5Ce202BmbzRGMU4qxuwkGfO9dwYmWx/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eSvJWPphS09wJUe-nmXz1cB1wV05sVWi/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ig5oPTwEFeePfw-8J7Kx6sEVUHJuOGcQ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C1iAfMAoWGXeUg4Yg_N99jZYCyTz4-XL/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PeFQEkBqr1pP659tUIqNkPyj2sZsRdSM/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1URJ6Y5ccu4sa_5Pm6zhGTr2EXklTtCsW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xEnsXfM3qu8FO-KLdyNLsKz9zJYL9k62/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TCUEFaBI2rmQT3E6ESgX2stwCFcHeSRp/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1keC4_cmj6aOOGAv7dUoNRth9OzsLM430/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v45ESlqh1cTBjlK3qZs1jDuGwkvubDFT/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fFtr1KF8dPZhgySj4Ufa6KdOyexwMY-g/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ua9RDXiPOpawRFub7OVUXXs8KGd90v-D/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tOi--TyCabd-gQtaA6bjW7Xv-ZbyKUYa/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uzTwdbhqUqReWU9UkedDIFPq6GFYy-LW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cLL6kuNHcc-eKZo_mQ7kBQWaVyJdDfDp/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +456,14 @@
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -658,10 +720,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,8 +785,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1025,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1113,7 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,7 +1213,9 @@
       <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,7 +1246,9 @@
       <c r="I8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1279,9 @@
       <c r="I9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,7 +1312,9 @@
       <c r="I10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1264,7 +1345,9 @@
       <c r="I11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1378,9 @@
       <c r="I12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,10 +1411,12 @@
       <c r="I13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
@@ -1357,10 +1444,12 @@
       <c r="I14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1388,10 +1477,12 @@
       <c r="I15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
@@ -1419,10 +1510,12 @@
       <c r="I16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
@@ -1450,7 +1543,9 @@
       <c r="I17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1576,9 @@
       <c r="I18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="28" t="s">
+        <v>127</v>
+      </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1512,7 +1609,9 @@
       <c r="I19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,7 +1642,9 @@
       <c r="I20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="27" t="s">
+        <v>129</v>
+      </c>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,7 +1675,9 @@
       <c r="I21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1708,9 @@
       <c r="I22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,7 +1741,9 @@
       <c r="I23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,23 +1774,54 @@
       <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="27" t="s">
+        <v>133</v>
+      </c>
       <c r="K24" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J7" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J9" r:id="rId3"/>
+    <hyperlink ref="J10" r:id="rId4"/>
+    <hyperlink ref="J11" r:id="rId5"/>
+    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J13" r:id="rId7"/>
+    <hyperlink ref="J14" r:id="rId8"/>
+    <hyperlink ref="J15" r:id="rId9"/>
+    <hyperlink ref="J16" r:id="rId10"/>
+    <hyperlink ref="J17" r:id="rId11"/>
+    <hyperlink ref="J18" r:id="rId12"/>
+    <hyperlink ref="J19" r:id="rId13"/>
+    <hyperlink ref="J20" r:id="rId14"/>
+    <hyperlink ref="J21" r:id="rId15"/>
+    <hyperlink ref="J22" r:id="rId16"/>
+    <hyperlink ref="J23" r:id="rId17"/>
+    <hyperlink ref="J24" r:id="rId18"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="85.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="9:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
